--- a/biology/Zoologie/Brème/Brème.xlsx
+++ b/biology/Zoologie/Brème/Brème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Br%C3%A8me</t>
+          <t>Brème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brème est un nom vernaculaire féminin, ambigu en français car il peut désigner différentes espèces de poissons d'eau douce, au corps haut et peu épais, appartenant tous à la famille des Cyprinidés. En français, il fait en premier lieu référence à la brème commune (Abramis brama). Ce nom est aussi à l'origine de plusieurs noms normalisés ou de noms vulgaires créés pour la nomenclature scientifique en français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Br%C3%A8me</t>
+          <t>Brème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Physiologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les brèmes sont des poissons d'eau douce qui ont en commun d'avoir un corps haut et comprimé en largeur[1]. Cette espèce de poisson d'eau douce fait partie de la famille des carpes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les brèmes sont des poissons d'eau douce qui ont en commun d'avoir un corps haut et comprimé en largeur. Cette espèce de poisson d'eau douce fait partie de la famille des carpes.
 Les caractéristiques générales des brèmes sont celles des Cyprinidae, avec des nuances pour chaque espèce : voir les articles détaillés pour plus d'informations sur leur description ou leur mode de vie.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Br%C3%A8me</t>
+          <t>Brème</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,20 +557,22 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés[2] en français. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et figurent donc plusieurs fois dans cette liste. Les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
-Brème - voir Brème commune[3],[4],[5],[6],[7]
-Brème argentée - voir Brème bordelière[3]
-Brème blanche - voir Brème bordelière[3]
-Brème bordelière - Blicca bjoerkna[3],[7]
-Brème commune - Abramis brama[3]
-Brème du Danube - Ballerus sapa[3],[7]
-Brème franche - voir Brème commune[3]
-Brème de Russie - Vimba vimba[3]
-Brème sapa - voir Brème du Danube[3]
-Grande brème - voir Brème commune[3]</t>
+Brème - voir Brème commune
+Brème argentée - voir Brème bordelière
+Brème blanche - voir Brème bordelière
+Brème bordelière - Blicca bjoerkna,
+Brème commune - Abramis brama
+Brème du Danube - Ballerus sapa,
+Brème franche - voir Brème commune
+Brème de Russie - Vimba vimba
+Brème sapa - voir Brème du Danube
+Grande brème - voir Brème commune</t>
         </is>
       </c>
     </row>
